--- a/Technical Projects/A3D Mirage - Compact DIY 3D Printer/Files/Display_A3D_Mirage.xlsx
+++ b/Technical Projects/A3D Mirage - Compact DIY 3D Printer/Files/Display_A3D_Mirage.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Capayel\Desktop\Desktop_Documents\Voron_0_Mirage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Capayel\Documents\Github\PMNaty\Portfolio\Technical Projects\A3D Mirage - Compact DIY 3D Printer\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7494DF1-9417-4B1F-A3DF-3F1B4E3C506D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6651CB57-9864-4526-B91C-780D8C410FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{3D81DF33-2C0F-4253-AD94-7B906C199057}"/>
+    <workbookView xWindow="705" yWindow="1065" windowWidth="9915" windowHeight="14535" xr2:uid="{3D81DF33-2C0F-4253-AD94-7B906C199057}"/>
   </bookViews>
   <sheets>
     <sheet name="Display_Notes" sheetId="9" r:id="rId1"/>
@@ -803,7 +803,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -883,17 +883,14 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -933,569 +930,684 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>96705</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>168468</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>51199</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Group 1">
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26A372FB-B007-3A9C-9C27-380FC28DA886}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB9583C3-AB04-AF99-959E-16A68FE0767D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="15752" t="24504" r="11694" b="22672"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
         <a:xfrm>
           <a:off x="247650" y="247650"/>
-          <a:ext cx="5297355" cy="2527699"/>
-          <a:chOff x="246529" y="441859"/>
-          <a:chExt cx="5273823" cy="2516494"/>
+          <a:ext cx="4626168" cy="2527699"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="12" name="Picture 11">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB9583C3-AB04-AF99-959E-16A68FE0767D}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-          <a:srcRect l="15752" t="24504" r="11694" b="22672"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="246529" y="441859"/>
-            <a:ext cx="4605618" cy="2516494"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="TextBox 12">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98555264-F074-4FC7-AAFB-30F91F4DF6C8}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4408060" y="1792941"/>
-            <a:ext cx="1112292" cy="264560"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>217700</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>118848</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>96705</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>136936</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="TextBox 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98555264-F074-4FC7-AAFB-30F91F4DF6C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4427750" y="1604748"/>
+          <a:ext cx="1117255" cy="265738"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00FFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Emergency Stop</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>168510</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152661</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>10361</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>170749</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="TextBox 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A697F57-3555-4D9C-17C7-A1CC43FF5D27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4378560" y="1143261"/>
+          <a:ext cx="832451" cy="265738"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00FFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Logo Signal</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>219902</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>62500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>207327</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>80588</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="TextBox 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D0FC297-7CB9-7DDE-DCD5-594ADE564927}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3191702" y="2291350"/>
+          <a:ext cx="482725" cy="265738"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00FFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Knob</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>12377</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>242776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>156108</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>186207</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="TextBox 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B70611E-4DCD-4160-BC0E-84FEB9E46ECC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1993577" y="490426"/>
+          <a:ext cx="886681" cy="438731"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00FFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Part</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Cooling</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Fan Speed</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>49060</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>73916</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>62923</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>92004</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="TextBox 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F12A1C88-4DFA-4E83-9E27-D16C4B0FD581}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3020860" y="569216"/>
+          <a:ext cx="1499763" cy="265738"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00FFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Chamber Temperature</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>123630</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>85149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>89821</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>62592</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0666E213-CBDB-7BFE-237F-27CAE9F4C79A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2600130" y="828099"/>
+          <a:ext cx="461491" cy="472743"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
           <a:solidFill>
             <a:srgbClr val="00FFFF"/>
           </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" rtlCol="0" anchor="t">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100"/>
-              <a:t>Emergency Stop</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="14" name="TextBox 13">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A697F57-3555-4D9C-17C7-A1CC43FF5D27}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4359089" y="1333500"/>
-            <a:ext cx="828753" cy="264560"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>84357</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>62638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19596</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>80726</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="TextBox 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC875620-8B6B-461C-BE76-D7BB9BE31862}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="332007" y="805588"/>
+          <a:ext cx="925839" cy="265738"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00FFFF"/>
+        </a:solidFill>
+        <a:ln>
           <a:solidFill>
-            <a:srgbClr val="00FFFF"/>
+            <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" rtlCol="0" anchor="t">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100"/>
-              <a:t>Logo Signal</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="15" name="TextBox 14">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D0FC297-7CB9-7DDE-DCD5-594ADE564927}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3177503" y="2476500"/>
-            <a:ext cx="480581" cy="264560"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Nozzle Temp</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>175154</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>175173</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>198961</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>193261</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="TextBox 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA14F95F-ACCD-3507-3421-C6F3FC10230D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="422804" y="1165773"/>
+          <a:ext cx="766757" cy="265738"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00FFFF"/>
+        </a:solidFill>
+        <a:ln>
           <a:solidFill>
-            <a:srgbClr val="00FFFF"/>
+            <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="t">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100"/>
-              <a:t>Knob</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="16" name="TextBox 15">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B70611E-4DCD-4160-BC0E-84FEB9E46ECC}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1984700" y="683559"/>
-            <a:ext cx="882742" cy="436786"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Bed Temp</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>51201</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>186360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>232698</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>129791</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="TextBox 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF7E6E63-3E03-5CC0-B9D9-7FCD54F3F6AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="794151" y="1919910"/>
+          <a:ext cx="2162697" cy="438731"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00FFFF"/>
+        </a:solidFill>
+        <a:ln>
           <a:solidFill>
-            <a:srgbClr val="00FFFF"/>
+            <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" rtlCol="0" anchor="t">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100"/>
-              <a:t>Part</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" baseline="0"/>
-              <a:t> Cooling</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" baseline="0"/>
-              <a:t>Fan Speed</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="17" name="TextBox 16">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F12A1C88-4DFA-4E83-9E27-D16C4B0FD581}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3007420" y="762000"/>
-            <a:ext cx="1493101" cy="264560"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr val="00FFFF"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" rtlCol="0" anchor="t">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100"/>
-              <a:t>Chamber Temperature</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0666E213-CBDB-7BFE-237F-27CAE9F4C79A}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipH="1">
-            <a:off x="2588559" y="1019735"/>
-            <a:ext cx="459441" cy="470647"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="00FFFF"/>
-            </a:solidFill>
-            <a:tailEnd type="triangle"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="22" name="TextBox 21">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC875620-8B6B-461C-BE76-D7BB9BE31862}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="330511" y="997324"/>
-            <a:ext cx="921726" cy="264560"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr val="00FFFF"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="t">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100"/>
-              <a:t>Nozzle Temp</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="23" name="TextBox 22">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA14F95F-ACCD-3507-3421-C6F3FC10230D}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="420905" y="1355912"/>
-            <a:ext cx="763351" cy="264560"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr val="00FFFF"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="t">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100"/>
-              <a:t>Bed Temp</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="24" name="TextBox 23">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF7E6E63-3E03-5CC0-B9D9-7FCD54F3F6AA}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="790602" y="2106706"/>
-            <a:ext cx="2153090" cy="436786"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr val="00FFFF"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="t">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100"/>
-              <a:t>Progress Bar / Time of Completion</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100"/>
-              <a:t>Status Message</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Progress Bar / Time of Completion</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Status Message</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1801,18 +1913,18 @@
   <dimension ref="B2:AG159"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AH9" sqref="AH9"/>
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="3.7109375" style="2"/>
-    <col min="3" max="3" width="3.7109375" style="28"/>
+    <col min="3" max="3" width="3.7109375" style="27"/>
     <col min="4" max="16384" width="3.7109375" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="27" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="19" t="s">
@@ -1823,7 +1935,7 @@
       </c>
     </row>
     <row r="3" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="27" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="11" t="s">
@@ -1856,7 +1968,7 @@
     </row>
     <row r="8" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="11"/>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="27" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="11" t="s">
@@ -1865,7 +1977,7 @@
     </row>
     <row r="9" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="11"/>
-      <c r="C9" s="29"/>
+      <c r="C9" s="2"/>
       <c r="D9" s="1" t="s">
         <v>1</v>
       </c>
@@ -1938,7 +2050,7 @@
     </row>
     <row r="17" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="11"/>
-      <c r="C17" s="29"/>
+      <c r="C17" s="2"/>
       <c r="D17" s="1" t="s">
         <v>1</v>
       </c>
@@ -1948,7 +2060,7 @@
     </row>
     <row r="18" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="11"/>
-      <c r="C18" s="29"/>
+      <c r="C18" s="2"/>
       <c r="D18" s="1" t="s">
         <v>1</v>
       </c>
@@ -1958,12 +2070,12 @@
     </row>
     <row r="19" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="11"/>
-      <c r="C19" s="29"/>
+      <c r="C19" s="2"/>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="11"/>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="27" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="11" t="s">
@@ -1981,7 +2093,7 @@
     </row>
     <row r="22" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
-      <c r="C22" s="29"/>
+      <c r="C22" s="2"/>
       <c r="D22" s="1" t="s">
         <v>1</v>
       </c>
@@ -1991,7 +2103,7 @@
     </row>
     <row r="23" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="11"/>
-      <c r="C23" s="29"/>
+      <c r="C23" s="2"/>
       <c r="D23" s="1" t="s">
         <v>1</v>
       </c>
@@ -2000,7 +2112,7 @@
       </c>
     </row>
     <row r="24" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="29"/>
+      <c r="C24" s="2"/>
       <c r="D24" s="1" t="s">
         <v>1</v>
       </c>
@@ -2009,7 +2121,7 @@
       </c>
     </row>
     <row r="25" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="29"/>
+      <c r="C25" s="2"/>
       <c r="D25" s="1" t="s">
         <v>1</v>
       </c>
@@ -2037,7 +2149,7 @@
       <c r="D28" s="1"/>
     </row>
     <row r="29" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="27" t="s">
         <v>6</v>
       </c>
       <c r="D29" s="11" t="s">
@@ -2120,7 +2232,7 @@
       <c r="D39" s="1"/>
     </row>
     <row r="40" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="28" t="s">
+      <c r="C40" s="27" t="s">
         <v>7</v>
       </c>
       <c r="D40" s="11" t="s">
@@ -2291,7 +2403,7 @@
       </c>
     </row>
     <row r="58" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C58" s="28" t="s">
+      <c r="C58" s="27" t="s">
         <v>8</v>
       </c>
       <c r="D58" s="11" t="s">
@@ -2347,484 +2459,484 @@
       </c>
     </row>
     <row r="70" spans="4:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D70" s="28"/>
-      <c r="E70" s="28"/>
-      <c r="F70" s="28"/>
-      <c r="G70" s="28"/>
-      <c r="H70" s="28"/>
-      <c r="I70" s="28"/>
-      <c r="J70" s="28"/>
-      <c r="K70" s="28"/>
-      <c r="L70" s="28"/>
-      <c r="M70" s="28"/>
-      <c r="N70" s="28"/>
-      <c r="O70" s="28"/>
-      <c r="P70" s="28"/>
-      <c r="Q70" s="28"/>
-      <c r="R70" s="28"/>
-      <c r="S70" s="28"/>
-      <c r="T70" s="28"/>
-      <c r="U70" s="28"/>
-      <c r="V70" s="28"/>
-      <c r="W70" s="28"/>
-      <c r="X70" s="28"/>
-      <c r="Y70" s="28"/>
-      <c r="Z70" s="28"/>
-      <c r="AA70" s="28"/>
-      <c r="AB70" s="28"/>
-      <c r="AC70" s="28"/>
-      <c r="AD70" s="28"/>
-      <c r="AE70" s="28"/>
-      <c r="AF70" s="28"/>
-      <c r="AG70" s="28"/>
+      <c r="D70" s="27"/>
+      <c r="E70" s="27"/>
+      <c r="F70" s="27"/>
+      <c r="G70" s="27"/>
+      <c r="H70" s="27"/>
+      <c r="I70" s="27"/>
+      <c r="J70" s="27"/>
+      <c r="K70" s="27"/>
+      <c r="L70" s="27"/>
+      <c r="M70" s="27"/>
+      <c r="N70" s="27"/>
+      <c r="O70" s="27"/>
+      <c r="P70" s="27"/>
+      <c r="Q70" s="27"/>
+      <c r="R70" s="27"/>
+      <c r="S70" s="27"/>
+      <c r="T70" s="27"/>
+      <c r="U70" s="27"/>
+      <c r="V70" s="27"/>
+      <c r="W70" s="27"/>
+      <c r="X70" s="27"/>
+      <c r="Y70" s="27"/>
+      <c r="Z70" s="27"/>
+      <c r="AA70" s="27"/>
+      <c r="AB70" s="27"/>
+      <c r="AC70" s="27"/>
+      <c r="AD70" s="27"/>
+      <c r="AE70" s="27"/>
+      <c r="AF70" s="27"/>
+      <c r="AG70" s="27"/>
     </row>
     <row r="71" spans="4:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D71" s="28"/>
-      <c r="E71" s="28"/>
-      <c r="F71" s="28"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="28"/>
-      <c r="I71" s="28"/>
-      <c r="J71" s="28"/>
-      <c r="K71" s="28"/>
-      <c r="L71" s="28"/>
-      <c r="M71" s="28"/>
-      <c r="N71" s="28"/>
-      <c r="O71" s="28"/>
-      <c r="P71" s="28"/>
-      <c r="Q71" s="28"/>
-      <c r="R71" s="28"/>
-      <c r="S71" s="28"/>
-      <c r="T71" s="28"/>
-      <c r="U71" s="28"/>
-      <c r="V71" s="28"/>
-      <c r="W71" s="28"/>
-      <c r="X71" s="28"/>
-      <c r="Y71" s="28"/>
-      <c r="Z71" s="28"/>
-      <c r="AA71" s="28"/>
-      <c r="AB71" s="28"/>
-      <c r="AC71" s="28"/>
-      <c r="AD71" s="28"/>
-      <c r="AE71" s="28"/>
-      <c r="AF71" s="28"/>
-      <c r="AG71" s="28"/>
+      <c r="D71" s="27"/>
+      <c r="E71" s="27"/>
+      <c r="F71" s="27"/>
+      <c r="G71" s="27"/>
+      <c r="H71" s="27"/>
+      <c r="I71" s="27"/>
+      <c r="J71" s="27"/>
+      <c r="K71" s="27"/>
+      <c r="L71" s="27"/>
+      <c r="M71" s="27"/>
+      <c r="N71" s="27"/>
+      <c r="O71" s="27"/>
+      <c r="P71" s="27"/>
+      <c r="Q71" s="27"/>
+      <c r="R71" s="27"/>
+      <c r="S71" s="27"/>
+      <c r="T71" s="27"/>
+      <c r="U71" s="27"/>
+      <c r="V71" s="27"/>
+      <c r="W71" s="27"/>
+      <c r="X71" s="27"/>
+      <c r="Y71" s="27"/>
+      <c r="Z71" s="27"/>
+      <c r="AA71" s="27"/>
+      <c r="AB71" s="27"/>
+      <c r="AC71" s="27"/>
+      <c r="AD71" s="27"/>
+      <c r="AE71" s="27"/>
+      <c r="AF71" s="27"/>
+      <c r="AG71" s="27"/>
     </row>
     <row r="72" spans="4:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D72" s="28"/>
-      <c r="E72" s="28"/>
-      <c r="F72" s="28"/>
-      <c r="G72" s="28"/>
-      <c r="H72" s="28"/>
-      <c r="I72" s="28"/>
-      <c r="J72" s="28"/>
-      <c r="K72" s="28"/>
-      <c r="L72" s="28"/>
-      <c r="M72" s="28"/>
-      <c r="N72" s="28"/>
-      <c r="O72" s="28"/>
-      <c r="P72" s="28"/>
-      <c r="Q72" s="28"/>
-      <c r="R72" s="28"/>
-      <c r="S72" s="28"/>
-      <c r="T72" s="28"/>
-      <c r="U72" s="28"/>
-      <c r="V72" s="28"/>
-      <c r="W72" s="28"/>
-      <c r="X72" s="28"/>
-      <c r="Y72" s="28"/>
-      <c r="Z72" s="28"/>
-      <c r="AA72" s="28"/>
-      <c r="AB72" s="28"/>
-      <c r="AC72" s="28"/>
-      <c r="AD72" s="28"/>
-      <c r="AE72" s="28"/>
-      <c r="AF72" s="28"/>
-      <c r="AG72" s="28"/>
+      <c r="D72" s="27"/>
+      <c r="E72" s="27"/>
+      <c r="F72" s="27"/>
+      <c r="G72" s="27"/>
+      <c r="H72" s="27"/>
+      <c r="I72" s="27"/>
+      <c r="J72" s="27"/>
+      <c r="K72" s="27"/>
+      <c r="L72" s="27"/>
+      <c r="M72" s="27"/>
+      <c r="N72" s="27"/>
+      <c r="O72" s="27"/>
+      <c r="P72" s="27"/>
+      <c r="Q72" s="27"/>
+      <c r="R72" s="27"/>
+      <c r="S72" s="27"/>
+      <c r="T72" s="27"/>
+      <c r="U72" s="27"/>
+      <c r="V72" s="27"/>
+      <c r="W72" s="27"/>
+      <c r="X72" s="27"/>
+      <c r="Y72" s="27"/>
+      <c r="Z72" s="27"/>
+      <c r="AA72" s="27"/>
+      <c r="AB72" s="27"/>
+      <c r="AC72" s="27"/>
+      <c r="AD72" s="27"/>
+      <c r="AE72" s="27"/>
+      <c r="AF72" s="27"/>
+      <c r="AG72" s="27"/>
     </row>
     <row r="73" spans="4:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D73" s="28"/>
-      <c r="E73" s="28"/>
-      <c r="F73" s="28"/>
-      <c r="G73" s="28"/>
-      <c r="H73" s="28"/>
-      <c r="I73" s="28"/>
-      <c r="J73" s="28"/>
-      <c r="K73" s="28"/>
-      <c r="L73" s="28"/>
-      <c r="M73" s="28"/>
-      <c r="N73" s="28"/>
-      <c r="O73" s="28"/>
-      <c r="P73" s="28"/>
-      <c r="Q73" s="28"/>
-      <c r="R73" s="28"/>
-      <c r="S73" s="28"/>
-      <c r="T73" s="28"/>
-      <c r="U73" s="28"/>
-      <c r="V73" s="28"/>
-      <c r="W73" s="28"/>
-      <c r="X73" s="28"/>
-      <c r="Y73" s="28"/>
-      <c r="Z73" s="28"/>
-      <c r="AA73" s="28"/>
-      <c r="AB73" s="28"/>
-      <c r="AC73" s="28"/>
-      <c r="AD73" s="28"/>
-      <c r="AE73" s="28"/>
-      <c r="AF73" s="28"/>
-      <c r="AG73" s="28"/>
+      <c r="D73" s="27"/>
+      <c r="E73" s="27"/>
+      <c r="F73" s="27"/>
+      <c r="G73" s="27"/>
+      <c r="H73" s="27"/>
+      <c r="I73" s="27"/>
+      <c r="J73" s="27"/>
+      <c r="K73" s="27"/>
+      <c r="L73" s="27"/>
+      <c r="M73" s="27"/>
+      <c r="N73" s="27"/>
+      <c r="O73" s="27"/>
+      <c r="P73" s="27"/>
+      <c r="Q73" s="27"/>
+      <c r="R73" s="27"/>
+      <c r="S73" s="27"/>
+      <c r="T73" s="27"/>
+      <c r="U73" s="27"/>
+      <c r="V73" s="27"/>
+      <c r="W73" s="27"/>
+      <c r="X73" s="27"/>
+      <c r="Y73" s="27"/>
+      <c r="Z73" s="27"/>
+      <c r="AA73" s="27"/>
+      <c r="AB73" s="27"/>
+      <c r="AC73" s="27"/>
+      <c r="AD73" s="27"/>
+      <c r="AE73" s="27"/>
+      <c r="AF73" s="27"/>
+      <c r="AG73" s="27"/>
     </row>
     <row r="74" spans="4:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D74" s="28"/>
-      <c r="E74" s="28"/>
-      <c r="F74" s="28"/>
-      <c r="G74" s="28"/>
-      <c r="H74" s="28"/>
-      <c r="I74" s="28"/>
-      <c r="J74" s="28"/>
-      <c r="K74" s="28"/>
-      <c r="L74" s="28"/>
-      <c r="M74" s="28"/>
-      <c r="N74" s="28"/>
-      <c r="O74" s="28"/>
-      <c r="P74" s="28"/>
-      <c r="Q74" s="28"/>
-      <c r="R74" s="28"/>
-      <c r="S74" s="28"/>
-      <c r="T74" s="28"/>
-      <c r="U74" s="28"/>
-      <c r="V74" s="28"/>
-      <c r="W74" s="28"/>
-      <c r="X74" s="28"/>
-      <c r="Y74" s="28"/>
-      <c r="Z74" s="28"/>
-      <c r="AA74" s="28"/>
-      <c r="AB74" s="28"/>
-      <c r="AC74" s="28"/>
-      <c r="AD74" s="28"/>
-      <c r="AE74" s="28"/>
-      <c r="AF74" s="28"/>
-      <c r="AG74" s="28"/>
+      <c r="D74" s="27"/>
+      <c r="E74" s="27"/>
+      <c r="F74" s="27"/>
+      <c r="G74" s="27"/>
+      <c r="H74" s="27"/>
+      <c r="I74" s="27"/>
+      <c r="J74" s="27"/>
+      <c r="K74" s="27"/>
+      <c r="L74" s="27"/>
+      <c r="M74" s="27"/>
+      <c r="N74" s="27"/>
+      <c r="O74" s="27"/>
+      <c r="P74" s="27"/>
+      <c r="Q74" s="27"/>
+      <c r="R74" s="27"/>
+      <c r="S74" s="27"/>
+      <c r="T74" s="27"/>
+      <c r="U74" s="27"/>
+      <c r="V74" s="27"/>
+      <c r="W74" s="27"/>
+      <c r="X74" s="27"/>
+      <c r="Y74" s="27"/>
+      <c r="Z74" s="27"/>
+      <c r="AA74" s="27"/>
+      <c r="AB74" s="27"/>
+      <c r="AC74" s="27"/>
+      <c r="AD74" s="27"/>
+      <c r="AE74" s="27"/>
+      <c r="AF74" s="27"/>
+      <c r="AG74" s="27"/>
     </row>
     <row r="75" spans="4:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D75" s="28"/>
-      <c r="E75" s="28"/>
-      <c r="F75" s="28"/>
-      <c r="G75" s="28"/>
-      <c r="H75" s="28"/>
-      <c r="I75" s="28"/>
-      <c r="J75" s="28"/>
-      <c r="K75" s="28"/>
-      <c r="L75" s="28"/>
-      <c r="M75" s="28"/>
-      <c r="N75" s="28"/>
-      <c r="O75" s="28"/>
-      <c r="P75" s="28"/>
-      <c r="Q75" s="28"/>
-      <c r="R75" s="28"/>
-      <c r="S75" s="28"/>
-      <c r="T75" s="28"/>
-      <c r="U75" s="28"/>
-      <c r="V75" s="28"/>
-      <c r="W75" s="28"/>
-      <c r="X75" s="28"/>
-      <c r="Y75" s="28"/>
-      <c r="Z75" s="28"/>
-      <c r="AA75" s="28"/>
-      <c r="AB75" s="28"/>
-      <c r="AC75" s="28"/>
-      <c r="AD75" s="28"/>
-      <c r="AE75" s="28"/>
-      <c r="AF75" s="28"/>
-      <c r="AG75" s="28"/>
+      <c r="D75" s="27"/>
+      <c r="E75" s="27"/>
+      <c r="F75" s="27"/>
+      <c r="G75" s="27"/>
+      <c r="H75" s="27"/>
+      <c r="I75" s="27"/>
+      <c r="J75" s="27"/>
+      <c r="K75" s="27"/>
+      <c r="L75" s="27"/>
+      <c r="M75" s="27"/>
+      <c r="N75" s="27"/>
+      <c r="O75" s="27"/>
+      <c r="P75" s="27"/>
+      <c r="Q75" s="27"/>
+      <c r="R75" s="27"/>
+      <c r="S75" s="27"/>
+      <c r="T75" s="27"/>
+      <c r="U75" s="27"/>
+      <c r="V75" s="27"/>
+      <c r="W75" s="27"/>
+      <c r="X75" s="27"/>
+      <c r="Y75" s="27"/>
+      <c r="Z75" s="27"/>
+      <c r="AA75" s="27"/>
+      <c r="AB75" s="27"/>
+      <c r="AC75" s="27"/>
+      <c r="AD75" s="27"/>
+      <c r="AE75" s="27"/>
+      <c r="AF75" s="27"/>
+      <c r="AG75" s="27"/>
     </row>
     <row r="76" spans="4:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D76" s="28"/>
-      <c r="E76" s="28"/>
-      <c r="F76" s="28"/>
-      <c r="G76" s="28"/>
-      <c r="H76" s="28"/>
-      <c r="I76" s="28"/>
-      <c r="J76" s="28"/>
-      <c r="K76" s="28"/>
-      <c r="L76" s="28"/>
-      <c r="M76" s="28"/>
-      <c r="N76" s="28"/>
-      <c r="O76" s="28"/>
-      <c r="P76" s="28"/>
-      <c r="Q76" s="28"/>
-      <c r="R76" s="28"/>
-      <c r="S76" s="28"/>
-      <c r="T76" s="28"/>
-      <c r="U76" s="28"/>
-      <c r="V76" s="28"/>
-      <c r="W76" s="28"/>
-      <c r="X76" s="28"/>
-      <c r="Y76" s="28"/>
-      <c r="Z76" s="28"/>
-      <c r="AA76" s="28"/>
-      <c r="AB76" s="28"/>
-      <c r="AC76" s="28"/>
-      <c r="AD76" s="28"/>
-      <c r="AE76" s="28"/>
-      <c r="AF76" s="28"/>
-      <c r="AG76" s="28"/>
+      <c r="D76" s="27"/>
+      <c r="E76" s="27"/>
+      <c r="F76" s="27"/>
+      <c r="G76" s="27"/>
+      <c r="H76" s="27"/>
+      <c r="I76" s="27"/>
+      <c r="J76" s="27"/>
+      <c r="K76" s="27"/>
+      <c r="L76" s="27"/>
+      <c r="M76" s="27"/>
+      <c r="N76" s="27"/>
+      <c r="O76" s="27"/>
+      <c r="P76" s="27"/>
+      <c r="Q76" s="27"/>
+      <c r="R76" s="27"/>
+      <c r="S76" s="27"/>
+      <c r="T76" s="27"/>
+      <c r="U76" s="27"/>
+      <c r="V76" s="27"/>
+      <c r="W76" s="27"/>
+      <c r="X76" s="27"/>
+      <c r="Y76" s="27"/>
+      <c r="Z76" s="27"/>
+      <c r="AA76" s="27"/>
+      <c r="AB76" s="27"/>
+      <c r="AC76" s="27"/>
+      <c r="AD76" s="27"/>
+      <c r="AE76" s="27"/>
+      <c r="AF76" s="27"/>
+      <c r="AG76" s="27"/>
     </row>
     <row r="77" spans="4:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D77" s="28"/>
-      <c r="E77" s="28"/>
-      <c r="F77" s="28"/>
-      <c r="G77" s="28"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="28"/>
-      <c r="J77" s="28"/>
-      <c r="K77" s="28"/>
-      <c r="L77" s="28"/>
-      <c r="M77" s="28"/>
-      <c r="N77" s="28"/>
-      <c r="O77" s="28"/>
-      <c r="P77" s="28"/>
-      <c r="Q77" s="28"/>
-      <c r="R77" s="28"/>
-      <c r="S77" s="28"/>
-      <c r="T77" s="28"/>
-      <c r="U77" s="28"/>
-      <c r="V77" s="28"/>
-      <c r="W77" s="28"/>
-      <c r="X77" s="28"/>
-      <c r="Y77" s="28"/>
-      <c r="Z77" s="28"/>
-      <c r="AA77" s="28"/>
-      <c r="AB77" s="28"/>
-      <c r="AC77" s="28"/>
-      <c r="AD77" s="28"/>
-      <c r="AE77" s="28"/>
-      <c r="AF77" s="28"/>
-      <c r="AG77" s="28"/>
+      <c r="D77" s="27"/>
+      <c r="E77" s="27"/>
+      <c r="F77" s="27"/>
+      <c r="G77" s="27"/>
+      <c r="H77" s="27"/>
+      <c r="I77" s="27"/>
+      <c r="J77" s="27"/>
+      <c r="K77" s="27"/>
+      <c r="L77" s="27"/>
+      <c r="M77" s="27"/>
+      <c r="N77" s="27"/>
+      <c r="O77" s="27"/>
+      <c r="P77" s="27"/>
+      <c r="Q77" s="27"/>
+      <c r="R77" s="27"/>
+      <c r="S77" s="27"/>
+      <c r="T77" s="27"/>
+      <c r="U77" s="27"/>
+      <c r="V77" s="27"/>
+      <c r="W77" s="27"/>
+      <c r="X77" s="27"/>
+      <c r="Y77" s="27"/>
+      <c r="Z77" s="27"/>
+      <c r="AA77" s="27"/>
+      <c r="AB77" s="27"/>
+      <c r="AC77" s="27"/>
+      <c r="AD77" s="27"/>
+      <c r="AE77" s="27"/>
+      <c r="AF77" s="27"/>
+      <c r="AG77" s="27"/>
     </row>
     <row r="78" spans="4:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D78" s="28"/>
-      <c r="E78" s="28"/>
-      <c r="F78" s="28"/>
-      <c r="G78" s="28"/>
-      <c r="H78" s="28"/>
-      <c r="I78" s="28"/>
-      <c r="J78" s="28"/>
-      <c r="K78" s="28"/>
-      <c r="L78" s="28"/>
-      <c r="M78" s="28"/>
-      <c r="N78" s="28"/>
-      <c r="O78" s="28"/>
-      <c r="P78" s="28"/>
-      <c r="Q78" s="28"/>
-      <c r="R78" s="28"/>
-      <c r="S78" s="28"/>
-      <c r="T78" s="28"/>
-      <c r="U78" s="28"/>
-      <c r="V78" s="28"/>
-      <c r="W78" s="28"/>
-      <c r="X78" s="28"/>
-      <c r="Y78" s="28"/>
-      <c r="Z78" s="28"/>
-      <c r="AA78" s="28"/>
-      <c r="AB78" s="28"/>
-      <c r="AC78" s="28"/>
-      <c r="AD78" s="28"/>
-      <c r="AE78" s="28"/>
-      <c r="AF78" s="28"/>
-      <c r="AG78" s="28"/>
+      <c r="D78" s="27"/>
+      <c r="E78" s="27"/>
+      <c r="F78" s="27"/>
+      <c r="G78" s="27"/>
+      <c r="H78" s="27"/>
+      <c r="I78" s="27"/>
+      <c r="J78" s="27"/>
+      <c r="K78" s="27"/>
+      <c r="L78" s="27"/>
+      <c r="M78" s="27"/>
+      <c r="N78" s="27"/>
+      <c r="O78" s="27"/>
+      <c r="P78" s="27"/>
+      <c r="Q78" s="27"/>
+      <c r="R78" s="27"/>
+      <c r="S78" s="27"/>
+      <c r="T78" s="27"/>
+      <c r="U78" s="27"/>
+      <c r="V78" s="27"/>
+      <c r="W78" s="27"/>
+      <c r="X78" s="27"/>
+      <c r="Y78" s="27"/>
+      <c r="Z78" s="27"/>
+      <c r="AA78" s="27"/>
+      <c r="AB78" s="27"/>
+      <c r="AC78" s="27"/>
+      <c r="AD78" s="27"/>
+      <c r="AE78" s="27"/>
+      <c r="AF78" s="27"/>
+      <c r="AG78" s="27"/>
     </row>
     <row r="79" spans="4:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D79" s="28"/>
-      <c r="E79" s="28"/>
-      <c r="F79" s="28"/>
-      <c r="G79" s="28"/>
-      <c r="H79" s="28"/>
-      <c r="I79" s="28"/>
-      <c r="J79" s="28"/>
-      <c r="K79" s="28"/>
-      <c r="L79" s="28"/>
-      <c r="M79" s="28"/>
-      <c r="N79" s="28"/>
-      <c r="O79" s="28"/>
-      <c r="P79" s="28"/>
-      <c r="Q79" s="28"/>
-      <c r="R79" s="28"/>
-      <c r="S79" s="28"/>
-      <c r="T79" s="28"/>
-      <c r="U79" s="28"/>
-      <c r="V79" s="28"/>
-      <c r="W79" s="28"/>
-      <c r="X79" s="28"/>
-      <c r="Y79" s="28"/>
-      <c r="Z79" s="28"/>
-      <c r="AA79" s="28"/>
-      <c r="AB79" s="28"/>
-      <c r="AC79" s="28"/>
-      <c r="AD79" s="28"/>
-      <c r="AE79" s="28"/>
-      <c r="AF79" s="28"/>
-      <c r="AG79" s="28"/>
+      <c r="D79" s="27"/>
+      <c r="E79" s="27"/>
+      <c r="F79" s="27"/>
+      <c r="G79" s="27"/>
+      <c r="H79" s="27"/>
+      <c r="I79" s="27"/>
+      <c r="J79" s="27"/>
+      <c r="K79" s="27"/>
+      <c r="L79" s="27"/>
+      <c r="M79" s="27"/>
+      <c r="N79" s="27"/>
+      <c r="O79" s="27"/>
+      <c r="P79" s="27"/>
+      <c r="Q79" s="27"/>
+      <c r="R79" s="27"/>
+      <c r="S79" s="27"/>
+      <c r="T79" s="27"/>
+      <c r="U79" s="27"/>
+      <c r="V79" s="27"/>
+      <c r="W79" s="27"/>
+      <c r="X79" s="27"/>
+      <c r="Y79" s="27"/>
+      <c r="Z79" s="27"/>
+      <c r="AA79" s="27"/>
+      <c r="AB79" s="27"/>
+      <c r="AC79" s="27"/>
+      <c r="AD79" s="27"/>
+      <c r="AE79" s="27"/>
+      <c r="AF79" s="27"/>
+      <c r="AG79" s="27"/>
     </row>
     <row r="80" spans="4:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D80" s="28"/>
-      <c r="E80" s="28"/>
-      <c r="F80" s="28"/>
-      <c r="G80" s="28"/>
-      <c r="H80" s="28"/>
-      <c r="I80" s="28"/>
-      <c r="J80" s="28"/>
-      <c r="K80" s="28"/>
-      <c r="L80" s="28"/>
-      <c r="M80" s="28"/>
-      <c r="N80" s="28"/>
-      <c r="O80" s="28"/>
-      <c r="P80" s="28"/>
-      <c r="Q80" s="28"/>
-      <c r="R80" s="28"/>
-      <c r="S80" s="28"/>
-      <c r="T80" s="28"/>
-      <c r="U80" s="28"/>
-      <c r="V80" s="28"/>
-      <c r="W80" s="28"/>
-      <c r="X80" s="28"/>
-      <c r="Y80" s="28"/>
-      <c r="Z80" s="28"/>
-      <c r="AA80" s="28"/>
-      <c r="AB80" s="28"/>
-      <c r="AC80" s="28"/>
-      <c r="AD80" s="28"/>
-      <c r="AE80" s="28"/>
-      <c r="AF80" s="28"/>
-      <c r="AG80" s="28"/>
+      <c r="D80" s="27"/>
+      <c r="E80" s="27"/>
+      <c r="F80" s="27"/>
+      <c r="G80" s="27"/>
+      <c r="H80" s="27"/>
+      <c r="I80" s="27"/>
+      <c r="J80" s="27"/>
+      <c r="K80" s="27"/>
+      <c r="L80" s="27"/>
+      <c r="M80" s="27"/>
+      <c r="N80" s="27"/>
+      <c r="O80" s="27"/>
+      <c r="P80" s="27"/>
+      <c r="Q80" s="27"/>
+      <c r="R80" s="27"/>
+      <c r="S80" s="27"/>
+      <c r="T80" s="27"/>
+      <c r="U80" s="27"/>
+      <c r="V80" s="27"/>
+      <c r="W80" s="27"/>
+      <c r="X80" s="27"/>
+      <c r="Y80" s="27"/>
+      <c r="Z80" s="27"/>
+      <c r="AA80" s="27"/>
+      <c r="AB80" s="27"/>
+      <c r="AC80" s="27"/>
+      <c r="AD80" s="27"/>
+      <c r="AE80" s="27"/>
+      <c r="AF80" s="27"/>
+      <c r="AG80" s="27"/>
     </row>
     <row r="81" spans="4:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D81" s="28"/>
-      <c r="E81" s="28"/>
-      <c r="F81" s="28"/>
-      <c r="G81" s="28"/>
-      <c r="H81" s="28"/>
-      <c r="I81" s="28"/>
-      <c r="J81" s="28"/>
-      <c r="K81" s="28"/>
-      <c r="L81" s="28"/>
-      <c r="M81" s="28"/>
-      <c r="N81" s="28"/>
-      <c r="O81" s="28"/>
-      <c r="P81" s="28"/>
-      <c r="Q81" s="28"/>
-      <c r="R81" s="28"/>
-      <c r="S81" s="28"/>
-      <c r="T81" s="28"/>
-      <c r="U81" s="28"/>
-      <c r="V81" s="28"/>
-      <c r="W81" s="28"/>
-      <c r="X81" s="28"/>
-      <c r="Y81" s="28"/>
-      <c r="Z81" s="28"/>
-      <c r="AA81" s="28"/>
-      <c r="AB81" s="28"/>
-      <c r="AC81" s="28"/>
-      <c r="AD81" s="28"/>
-      <c r="AE81" s="28"/>
-      <c r="AF81" s="28"/>
-      <c r="AG81" s="28"/>
+      <c r="D81" s="27"/>
+      <c r="E81" s="27"/>
+      <c r="F81" s="27"/>
+      <c r="G81" s="27"/>
+      <c r="H81" s="27"/>
+      <c r="I81" s="27"/>
+      <c r="J81" s="27"/>
+      <c r="K81" s="27"/>
+      <c r="L81" s="27"/>
+      <c r="M81" s="27"/>
+      <c r="N81" s="27"/>
+      <c r="O81" s="27"/>
+      <c r="P81" s="27"/>
+      <c r="Q81" s="27"/>
+      <c r="R81" s="27"/>
+      <c r="S81" s="27"/>
+      <c r="T81" s="27"/>
+      <c r="U81" s="27"/>
+      <c r="V81" s="27"/>
+      <c r="W81" s="27"/>
+      <c r="X81" s="27"/>
+      <c r="Y81" s="27"/>
+      <c r="Z81" s="27"/>
+      <c r="AA81" s="27"/>
+      <c r="AB81" s="27"/>
+      <c r="AC81" s="27"/>
+      <c r="AD81" s="27"/>
+      <c r="AE81" s="27"/>
+      <c r="AF81" s="27"/>
+      <c r="AG81" s="27"/>
     </row>
     <row r="82" spans="4:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D82" s="28"/>
-      <c r="E82" s="28"/>
-      <c r="F82" s="28"/>
-      <c r="G82" s="28"/>
-      <c r="H82" s="28"/>
-      <c r="I82" s="28"/>
-      <c r="J82" s="28"/>
-      <c r="K82" s="28"/>
-      <c r="L82" s="28"/>
-      <c r="M82" s="28"/>
-      <c r="N82" s="28"/>
-      <c r="O82" s="28"/>
-      <c r="P82" s="28"/>
-      <c r="Q82" s="28"/>
-      <c r="R82" s="28"/>
-      <c r="S82" s="28"/>
-      <c r="T82" s="28"/>
-      <c r="U82" s="28"/>
-      <c r="V82" s="28"/>
-      <c r="W82" s="28"/>
-      <c r="X82" s="28"/>
-      <c r="Y82" s="28"/>
-      <c r="Z82" s="28"/>
-      <c r="AA82" s="28"/>
-      <c r="AB82" s="28"/>
-      <c r="AC82" s="28"/>
-      <c r="AD82" s="28"/>
-      <c r="AE82" s="28"/>
-      <c r="AF82" s="28"/>
-      <c r="AG82" s="28"/>
+      <c r="D82" s="27"/>
+      <c r="E82" s="27"/>
+      <c r="F82" s="27"/>
+      <c r="G82" s="27"/>
+      <c r="H82" s="27"/>
+      <c r="I82" s="27"/>
+      <c r="J82" s="27"/>
+      <c r="K82" s="27"/>
+      <c r="L82" s="27"/>
+      <c r="M82" s="27"/>
+      <c r="N82" s="27"/>
+      <c r="O82" s="27"/>
+      <c r="P82" s="27"/>
+      <c r="Q82" s="27"/>
+      <c r="R82" s="27"/>
+      <c r="S82" s="27"/>
+      <c r="T82" s="27"/>
+      <c r="U82" s="27"/>
+      <c r="V82" s="27"/>
+      <c r="W82" s="27"/>
+      <c r="X82" s="27"/>
+      <c r="Y82" s="27"/>
+      <c r="Z82" s="27"/>
+      <c r="AA82" s="27"/>
+      <c r="AB82" s="27"/>
+      <c r="AC82" s="27"/>
+      <c r="AD82" s="27"/>
+      <c r="AE82" s="27"/>
+      <c r="AF82" s="27"/>
+      <c r="AG82" s="27"/>
     </row>
     <row r="83" spans="4:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D83" s="28"/>
-      <c r="E83" s="28"/>
-      <c r="F83" s="28"/>
-      <c r="G83" s="28"/>
-      <c r="H83" s="28"/>
-      <c r="I83" s="28"/>
-      <c r="J83" s="28"/>
-      <c r="K83" s="28"/>
-      <c r="L83" s="28"/>
-      <c r="M83" s="28"/>
-      <c r="N83" s="28"/>
-      <c r="O83" s="28"/>
-      <c r="P83" s="28"/>
-      <c r="Q83" s="28"/>
-      <c r="R83" s="28"/>
-      <c r="S83" s="28"/>
-      <c r="T83" s="28"/>
-      <c r="U83" s="28"/>
-      <c r="V83" s="28"/>
-      <c r="W83" s="28"/>
-      <c r="X83" s="28"/>
-      <c r="Y83" s="28"/>
-      <c r="Z83" s="28"/>
-      <c r="AA83" s="28"/>
-      <c r="AB83" s="28"/>
-      <c r="AC83" s="28"/>
-      <c r="AD83" s="28"/>
-      <c r="AE83" s="28"/>
-      <c r="AF83" s="28"/>
-      <c r="AG83" s="28"/>
+      <c r="D83" s="27"/>
+      <c r="E83" s="27"/>
+      <c r="F83" s="27"/>
+      <c r="G83" s="27"/>
+      <c r="H83" s="27"/>
+      <c r="I83" s="27"/>
+      <c r="J83" s="27"/>
+      <c r="K83" s="27"/>
+      <c r="L83" s="27"/>
+      <c r="M83" s="27"/>
+      <c r="N83" s="27"/>
+      <c r="O83" s="27"/>
+      <c r="P83" s="27"/>
+      <c r="Q83" s="27"/>
+      <c r="R83" s="27"/>
+      <c r="S83" s="27"/>
+      <c r="T83" s="27"/>
+      <c r="U83" s="27"/>
+      <c r="V83" s="27"/>
+      <c r="W83" s="27"/>
+      <c r="X83" s="27"/>
+      <c r="Y83" s="27"/>
+      <c r="Z83" s="27"/>
+      <c r="AA83" s="27"/>
+      <c r="AB83" s="27"/>
+      <c r="AC83" s="27"/>
+      <c r="AD83" s="27"/>
+      <c r="AE83" s="27"/>
+      <c r="AF83" s="27"/>
+      <c r="AG83" s="27"/>
     </row>
     <row r="84" spans="4:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D84" s="28"/>
-      <c r="E84" s="28"/>
-      <c r="F84" s="28"/>
-      <c r="G84" s="28"/>
-      <c r="H84" s="28"/>
-      <c r="I84" s="28"/>
-      <c r="J84" s="28"/>
-      <c r="K84" s="28"/>
-      <c r="L84" s="28"/>
-      <c r="M84" s="28"/>
-      <c r="N84" s="28"/>
-      <c r="O84" s="28"/>
-      <c r="P84" s="28"/>
-      <c r="Q84" s="28"/>
-      <c r="R84" s="28"/>
-      <c r="S84" s="28"/>
-      <c r="T84" s="28"/>
-      <c r="U84" s="28"/>
-      <c r="V84" s="28"/>
-      <c r="W84" s="28"/>
-      <c r="X84" s="28"/>
-      <c r="Y84" s="28"/>
-      <c r="Z84" s="28"/>
-      <c r="AA84" s="28"/>
-      <c r="AB84" s="28"/>
-      <c r="AC84" s="28"/>
-      <c r="AD84" s="28"/>
-      <c r="AE84" s="28"/>
-      <c r="AF84" s="28"/>
-      <c r="AG84" s="28"/>
+      <c r="D84" s="27"/>
+      <c r="E84" s="27"/>
+      <c r="F84" s="27"/>
+      <c r="G84" s="27"/>
+      <c r="H84" s="27"/>
+      <c r="I84" s="27"/>
+      <c r="J84" s="27"/>
+      <c r="K84" s="27"/>
+      <c r="L84" s="27"/>
+      <c r="M84" s="27"/>
+      <c r="N84" s="27"/>
+      <c r="O84" s="27"/>
+      <c r="P84" s="27"/>
+      <c r="Q84" s="27"/>
+      <c r="R84" s="27"/>
+      <c r="S84" s="27"/>
+      <c r="T84" s="27"/>
+      <c r="U84" s="27"/>
+      <c r="V84" s="27"/>
+      <c r="W84" s="27"/>
+      <c r="X84" s="27"/>
+      <c r="Y84" s="27"/>
+      <c r="Z84" s="27"/>
+      <c r="AA84" s="27"/>
+      <c r="AB84" s="27"/>
+      <c r="AC84" s="27"/>
+      <c r="AD84" s="27"/>
+      <c r="AE84" s="27"/>
+      <c r="AF84" s="27"/>
+      <c r="AG84" s="27"/>
     </row>
     <row r="85" spans="4:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D85" s="26"/>
@@ -2868,7 +2980,7 @@
       <c r="D133" s="11"/>
     </row>
     <row r="134" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C134" s="29"/>
+      <c r="C134" s="2"/>
     </row>
     <row r="136" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="11"/>
@@ -2932,7 +3044,7 @@
   <dimension ref="B1:AP94"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH8" sqref="AH8:AH9"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2941,37 +3053,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="14" spans="2:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="27"/>
-      <c r="S14" s="27"/>
-      <c r="T14" s="27"/>
-      <c r="U14" s="27"/>
-      <c r="V14" s="27"/>
-      <c r="W14" s="27"/>
-      <c r="X14" s="27"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="29"/>
+      <c r="X14" s="29"/>
     </row>
     <row r="15" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
